--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27c08337ad3375f7/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="8_{296EC1BE-1ECA-46C2-9726-4F61B64C96FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B999E6B-98A4-489A-B7B3-027FC7C1AB99}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26853C8-13A8-4D92-9174-CB5FC8571C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -432,6 +432,17 @@
   <si>
     <t>end_text</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 오브젝트 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN_CPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST_CLN</t>
   </si>
 </sst>
 </file>
@@ -553,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,9 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -605,10 +613,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -930,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56558A53-13DE-484A-BD66-55DF2DF5CD5A}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1264,17 +1268,17 @@
       <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>WPN_001/1~SWP_001/1</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>90</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>59</v>
       </c>
       <c r="M8">
@@ -1466,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05750139-F7A3-41CB-8435-A7A5FC2F3E9D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1477,10 +1481,11 @@
     <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1491,10 +1496,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1503,10 +1511,13 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1515,17 +1526,23 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
     </row>
@@ -1537,21 +1554,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9599E69-2F5E-41F2-889B-84BE82F0EFEE}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1562,10 +1579,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1574,10 +1594,13 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1586,17 +1609,23 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
     </row>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26853C8-13A8-4D92-9174-CB5FC8571C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F1FF0-ABD6-4530-BC7B-915511DEAEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="2800" yWindow="1900" windowWidth="19200" windowHeight="10060" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="106">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -322,10 +322,6 @@
   </si>
   <si>
     <t>merchant_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>porion_merchant</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -934,25 +930,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56558A53-13DE-484A-BD66-55DF2DF5CD5A}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.8984375" customWidth="1"/>
-    <col min="10" max="15" width="15.69921875" customWidth="1"/>
-    <col min="16" max="16" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="54.09765625" customWidth="1"/>
+    <col min="9" max="9" width="32.9140625" customWidth="1"/>
+    <col min="10" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="54.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>35</v>
@@ -999,7 +995,7 @@
         <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>4</v>
@@ -1008,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1066,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>38</v>
@@ -1087,7 +1083,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>8</v>
@@ -1096,7 +1092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>75</v>
       </c>
@@ -1129,24 +1125,24 @@
         <v>12</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1159,7 +1155,7 @@
         <v>POT_001/1</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1171,15 +1167,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1198,7 +1194,7 @@
         <v>POT_001/2</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1207,18 +1203,18 @@
         <v>12</v>
       </c>
       <c r="Q6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1243,18 +1239,18 @@
         <v>12</v>
       </c>
       <c r="Q7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1273,7 +1269,7 @@
         <v>WPN_001/1~SWP_001/1</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1288,18 +1284,18 @@
         <v>12</v>
       </c>
       <c r="Q8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1324,18 +1320,18 @@
         <v>12</v>
       </c>
       <c r="Q9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1360,18 +1356,18 @@
         <v>12</v>
       </c>
       <c r="Q10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1380,7 +1376,7 @@
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1390,7 +1386,7 @@
         <v>COIN/1000</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>1000</v>
@@ -1402,61 +1398,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="I13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="I15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="I16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I21" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1476,16 +1472,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.58203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1496,13 +1492,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1517,7 +1513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1532,7 +1528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -1540,7 +1536,7 @@
         <v>72</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1556,19 +1552,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9599E69-2F5E-41F2-889B-84BE82F0EFEE}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1579,13 +1575,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1600,7 +1596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -1623,7 +1619,7 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1643,16 +1639,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1669,7 +1665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1684,7 +1680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1699,7 +1695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -1713,7 +1709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -1727,7 +1723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>64</v>
       </c>
@@ -1741,7 +1737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -1755,26 +1751,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -1783,7 +1779,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -1797,23 +1793,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F1FF0-ABD6-4530-BC7B-915511DEAEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C3F944-9E3F-4D80-ADBA-6E9E297DEE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1900" windowWidth="19200" windowHeight="10060" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="107">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>MST_CLN</t>
+  </si>
+  <si>
+    <t>퀘스트 우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -928,27 +932,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56558A53-13DE-484A-BD66-55DF2DF5CD5A}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.9140625" customWidth="1"/>
-    <col min="10" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="54.08203125" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.8984375" customWidth="1"/>
+    <col min="11" max="16" width="15.69921875" customWidth="1"/>
+    <col min="17" max="17" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="54.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,49 +966,52 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1017,9 +1024,7 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1032,23 +1037,26 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1061,38 +1069,39 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>75</v>
       </c>
@@ -1102,33 +1111,36 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="str">
-        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,),_xlfn.TEXTJOIN("/",TRUE,N4,O4))</f>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="str">
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K4,L4),_xlfn.TEXTJOIN("/",TRUE,M4,N4,),_xlfn.TEXTJOIN("/",TRUE,O4,P4))</f>
         <v>""</v>
       </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1138,36 +1150,39 @@
       <c r="D5" t="s">
         <v>76</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" ref="I5:I21" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,),_xlfn.TEXTJOIN("/",TRUE,N5,O5))</f>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J21" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K5,L5),_xlfn.TEXTJOIN("/",TRUE,M5,N5,),_xlfn.TEXTJOIN("/",TRUE,O5,P5))</f>
         <v>POT_001/1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>82</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="P5" t="s">
-        <v>12</v>
-      </c>
       <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -1177,36 +1192,39 @@
       <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>POT_001/2</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
       <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>80</v>
       </c>
@@ -1216,33 +1234,36 @@
       <c r="D7" t="s">
         <v>81</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>65</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>""</v>
       </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>85</v>
       </c>
@@ -1252,42 +1273,45 @@
       <c r="D8" t="s">
         <v>86</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>WPN_001/1~SWP_001/1</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
       <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>83</v>
       </c>
@@ -1297,33 +1321,36 @@
       <c r="D9" t="s">
         <v>88</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="str">
-        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,J9,K9),_xlfn.TEXTJOIN("/",TRUE,L9,M9,),_xlfn.TEXTJOIN("/",TRUE,N9,O9))</f>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="str">
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K9,L9),_xlfn.TEXTJOIN("/",TRUE,M9,N9,),_xlfn.TEXTJOIN("/",TRUE,O9,P9))</f>
         <v>""</v>
       </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1333,33 +1360,36 @@
       <c r="D10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>""</v>
       </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="Q10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>95</v>
       </c>
@@ -1369,91 +1399,94 @@
       <c r="D11" t="s">
         <v>97</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>96</v>
       </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="str">
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>COIN/1000</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>98</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1000</v>
       </c>
-      <c r="P11" t="s">
-        <v>12</v>
-      </c>
       <c r="Q11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I12" t="str">
+      <c r="R11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I13" t="str">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I14" t="str">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I15" t="str">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I16" t="str">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I17" t="str">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I18" t="str">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I19" t="str">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I20" t="str">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I21" t="str">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1472,16 +1505,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.58203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1498,7 +1531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1513,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1528,7 +1561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -1556,15 +1589,15 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1581,7 +1614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1596,7 +1629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1611,7 +1644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -1639,16 +1672,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1665,7 +1698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1680,7 +1713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1695,7 +1728,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -1709,7 +1742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -1723,7 +1756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>64</v>
       </c>
@@ -1737,7 +1770,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -1751,7 +1784,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1765,7 +1798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -1779,7 +1812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -1793,7 +1826,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -1807,7 +1840,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>96</v>
       </c>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C3F944-9E3F-4D80-ADBA-6E9E297DEE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04663666-8452-4C3F-96D0-BC7ED32D9651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,14 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포션 상인과 대화한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>potion_merchant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>interaction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,18 +309,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>potion_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>merchant_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문 밖으로 나가봐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IVS_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,17 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포션 한 번 마셔봐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>potion_002</t>
-  </si>
-  <si>
-    <t>잘 들고 다니라고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POT_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,14 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>potion_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장장이에게 가봐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대장장이와 대화한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,10 +364,6 @@
   </si>
   <si>
     <t>priest_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IVS_009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,6 +403,36 @@
   </si>
   <si>
     <t>퀘스트 우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_003</t>
+  </si>
+  <si>
+    <t>대장장이 할아범한테 가봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 한번 마셔봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_004</t>
+  </si>
+  <si>
+    <t>아이템 파우치에 포션을 넣어봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVS_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVS_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVS_008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,32 +923,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56558A53-13DE-484A-BD66-55DF2DF5CD5A}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17" customWidth="1"/>
     <col min="7" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.8984375" customWidth="1"/>
-    <col min="11" max="16" width="15.69921875" customWidth="1"/>
-    <col min="17" max="17" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54.09765625" customWidth="1"/>
+    <col min="10" max="10" width="32.875" customWidth="1"/>
+    <col min="11" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -966,10 +957,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>35</v>
@@ -1002,7 +993,7 @@
         <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>4</v>
@@ -1011,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1056,7 +1047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1062,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>38</v>
@@ -1092,7 +1083,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>8</v>
@@ -1101,9 +1092,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1118,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -1128,27 +1119,30 @@
       </c>
       <c r="J4" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K4,L4),_xlfn.TEXTJOIN("/",TRUE,M4,N4,),_xlfn.TEXTJOIN("/",TRUE,O4,P4))</f>
-        <v>""</v>
+        <v>POT_001/1</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
       <c r="Q4" t="s">
         <v>12</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1157,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1166,31 +1160,31 @@
         <v>12</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J21" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K5,L5),_xlfn.TEXTJOIN("/",TRUE,M5,N5,),_xlfn.TEXTJOIN("/",TRUE,O5,P5))</f>
-        <v>POT_001/1</v>
+        <f t="shared" ref="J5:J10" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K5,L5),_xlfn.TEXTJOIN("/",TRUE,M5,N5,),_xlfn.TEXTJOIN("/",TRUE,O5,P5))</f>
+        <v>POT_001/2</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="s">
         <v>12</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1199,7 +1193,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1209,30 +1203,27 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>POT_001/2</v>
+        <v>""</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="s">
         <v>12</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1241,124 +1232,125 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="str">
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K7,L7),_xlfn.TEXTJOIN("/",TRUE,M7,N7,),_xlfn.TEXTJOIN("/",TRUE,O7,P7))</f>
+        <v>""</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="Q7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
         <v>65</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="str">
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="str">
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K8,L8),_xlfn.TEXTJOIN("/",TRUE,M8,N8,),_xlfn.TEXTJOIN("/",TRUE,O8,P8))</f>
+        <v>WPN_001/1~SWP_001/1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>""</v>
       </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>WPN_001/1~SWP_001/1</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="str">
-        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K9,L9),_xlfn.TEXTJOIN("/",TRUE,M9,N9,),_xlfn.TEXTJOIN("/",TRUE,O9,P9))</f>
-        <v>""</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1367,127 +1359,88 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>""</v>
+        <v>COIN/1000</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
       </c>
       <c r="Q10" t="s">
         <v>12</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>COIN/1000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11">
-        <v>1000</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+        <f t="shared" ref="J11:J20" si="1">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K11,L11),_xlfn.TEXTJOIN("/",TRUE,M11,N11,),_xlfn.TEXTJOIN("/",TRUE,O11,P11))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1505,16 +1458,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1525,13 +1478,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1546,7 +1499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1555,21 +1508,21 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1589,15 +1542,15 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1608,13 +1561,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1629,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1638,21 +1591,21 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1666,22 +1619,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BFFB45-19B7-4C89-BD72-C2F08739F625}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1698,7 +1651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1713,7 +1666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1722,15 +1675,15 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -1742,116 +1695,102 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04663666-8452-4C3F-96D0-BC7ED32D9651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEFE6B7-FD42-44D8-A43A-417E9D8D4E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="3280" yWindow="3500" windowWidth="19200" windowHeight="10060" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -433,6 +433,10 @@
   </si>
   <si>
     <t>IVS_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st Quest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,24 +930,24 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17" customWidth="1"/>
     <col min="7" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.875" customWidth="1"/>
+    <col min="10" max="10" width="32.83203125" customWidth="1"/>
     <col min="11" max="16" width="15.75" customWidth="1"/>
-    <col min="17" max="17" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.58203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54.125" customWidth="1"/>
+    <col min="19" max="19" width="54.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -1133,8 +1137,11 @@
       <c r="R4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -1175,8 +1182,11 @@
       <c r="R5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>97</v>
       </c>
@@ -1214,8 +1224,11 @@
       <c r="R6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>100</v>
       </c>
@@ -1254,8 +1267,11 @@
       <c r="R7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>76</v>
       </c>
@@ -1302,8 +1318,11 @@
       <c r="R8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -1341,8 +1360,11 @@
       <c r="R9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -1383,62 +1405,65 @@
       <c r="R10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="J11" t="str">
         <f t="shared" ref="J11:J20" si="1">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K11,L11),_xlfn.TEXTJOIN("/",TRUE,M11,N11,),_xlfn.TEXTJOIN("/",TRUE,O11,P11))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="J12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="J13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="J14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="J15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="J16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1458,16 +1483,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1499,7 +1524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1514,7 +1539,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -1542,15 +1567,15 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1567,7 +1592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1582,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1597,7 +1622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>68</v>
       </c>
@@ -1622,19 +1647,19 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1651,7 +1676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1666,7 +1691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1681,7 +1706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>60</v>
       </c>
@@ -1695,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>61</v>
       </c>
@@ -1709,7 +1734,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -1723,7 +1748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -1737,7 +1762,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>64</v>
       </c>
@@ -1751,7 +1776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>65</v>
       </c>
@@ -1765,7 +1790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>66</v>
       </c>
@@ -1779,7 +1804,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>67</v>
       </c>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEFE6B7-FD42-44D8-A43A-417E9D8D4E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7772CB2A-BEB4-46D4-9147-91E921636205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="3500" windowWidth="19200" windowHeight="10060" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="380" yWindow="2270" windowWidth="19200" windowHeight="10060" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="111">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,9 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POT_001</t>
-  </si>
-  <si>
     <t>인벤토리에 들어있는 낡은 끌을 장착한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,6 +434,30 @@
   </si>
   <si>
     <t>1st Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4th Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5th Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6th Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +951,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -952,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -961,10 +982,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>35</v>
@@ -997,7 +1018,7 @@
         <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>4</v>
@@ -1066,7 +1087,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>38</v>
@@ -1087,7 +1108,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>8</v>
@@ -1098,7 +1119,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1110,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -1126,7 +1147,7 @@
         <v>POT_001/1</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1135,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="S4" t="s">
         <v>12</v>
@@ -1143,13 +1164,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1158,7 +1179,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1171,7 +1192,7 @@
         <v>POT_001/2</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -1180,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S5" t="s">
         <v>12</v>
@@ -1188,22 +1209,22 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1222,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="R6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S6" t="s">
         <v>12</v>
@@ -1230,22 +1251,22 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1265,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s">
         <v>12</v>
@@ -1273,25 +1294,25 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1301,13 +1322,13 @@
         <v>WPN_001/1~SWP_001/1</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1316,7 +1337,7 @@
         <v>12</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
         <v>12</v>
@@ -1324,22 +1345,22 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1358,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="R9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S9" t="s">
         <v>12</v>
@@ -1366,25 +1387,25 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1394,7 +1415,7 @@
         <v>COIN/1000</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10">
         <v>1000</v>
@@ -1503,7 +1524,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
@@ -1533,7 +1554,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
@@ -1544,10 +1565,10 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1586,7 +1607,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
@@ -1616,7 +1637,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
@@ -1624,13 +1645,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1647,7 +1668,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1700,15 +1721,15 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -1722,7 +1743,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1731,12 +1752,12 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -1745,68 +1766,68 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7772CB2A-BEB4-46D4-9147-91E921636205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27473FFE-7586-420B-9881-7CFFCE3CBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="2270" windowWidth="19200" windowHeight="10060" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="38835" yWindow="3570" windowWidth="21600" windowHeight="11265" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="114">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -459,6 +459,17 @@
   <si>
     <t>merchant_003</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 완료 NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetNPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priest</t>
   </si>
 </sst>
 </file>
@@ -948,27 +959,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56558A53-13DE-484A-BD66-55DF2DF5CD5A}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17" customWidth="1"/>
-    <col min="7" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.83203125" customWidth="1"/>
-    <col min="11" max="16" width="15.75" customWidth="1"/>
-    <col min="17" max="17" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54.08203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="8" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.83203125" customWidth="1"/>
+    <col min="12" max="17" width="15.75" customWidth="1"/>
+    <col min="18" max="18" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="54.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,55 +991,58 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1040,10 +1055,10 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1056,23 +1071,26 @@
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1083,41 +1101,44 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -1125,44 +1146,47 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>104</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>72</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="str">
-        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K4,L4),_xlfn.TEXTJOIN("/",TRUE,M4,N4,),_xlfn.TEXTJOIN("/",TRUE,O4,P4))</f>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="str">
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,L4,M4),_xlfn.TEXTJOIN("/",TRUE,N4,O4,),_xlfn.TEXTJOIN("/",TRUE,P4,Q4))</f>
         <v>POT_001/1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>74</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
-        <v>12</v>
-      </c>
       <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
         <v>110</v>
       </c>
-      <c r="S4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -1170,44 +1194,47 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>72</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J10" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K5,L5),_xlfn.TEXTJOIN("/",TRUE,M5,N5,),_xlfn.TEXTJOIN("/",TRUE,O5,P5))</f>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K10" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,L5,M5),_xlfn.TEXTJOIN("/",TRUE,N5,O5,),_xlfn.TEXTJOIN("/",TRUE,P5,Q5))</f>
         <v>POT_001/2</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="Q5" t="s">
-        <v>12</v>
-      </c>
       <c r="R5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
         <v>96</v>
       </c>
-      <c r="S5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>96</v>
       </c>
@@ -1215,41 +1242,44 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>105</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>61</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>""</v>
       </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="L6" t="s">
         <v>12</v>
       </c>
       <c r="R6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" t="s">
         <v>99</v>
       </c>
-      <c r="S6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>99</v>
       </c>
@@ -1257,42 +1287,45 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
         <v>97</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>106</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>62</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" t="str">
-        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K7,L7),_xlfn.TEXTJOIN("/",TRUE,M7,N7,),_xlfn.TEXTJOIN("/",TRUE,O7,P7))</f>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="str">
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,L7,M7),_xlfn.TEXTJOIN("/",TRUE,N7,O7,),_xlfn.TEXTJOIN("/",TRUE,P7,Q7))</f>
         <v>""</v>
       </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="Q7" t="s">
-        <v>12</v>
-      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="10"/>
       <c r="R7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" t="s">
         <v>75</v>
       </c>
-      <c r="S7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>75</v>
       </c>
@@ -1300,50 +1333,53 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>101</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>64</v>
       </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="str">
-        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K8,L8),_xlfn.TEXTJOIN("/",TRUE,M8,N8,),_xlfn.TEXTJOIN("/",TRUE,O8,P8))</f>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,L8,M8),_xlfn.TEXTJOIN("/",TRUE,N8,O8,),_xlfn.TEXTJOIN("/",TRUE,P8,Q8))</f>
         <v>WPN_001/1~SWP_001/1</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>79</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>56</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
-        <v>12</v>
-      </c>
       <c r="R8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" t="s">
         <v>81</v>
       </c>
-      <c r="S8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>81</v>
       </c>
@@ -1351,41 +1387,44 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
         <v>82</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>102</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>""</v>
       </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="R9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" t="s">
         <v>85</v>
       </c>
-      <c r="S9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>85</v>
       </c>
@@ -1393,99 +1432,102 @@
         <v>84</v>
       </c>
       <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
         <v>86</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>109</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>103</v>
       </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="str">
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v>COIN/1000</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>87</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1000</v>
       </c>
-      <c r="Q10" t="s">
-        <v>12</v>
-      </c>
       <c r="R10" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="J11" t="str">
-        <f t="shared" ref="J11:J20" si="1">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,K11,L11),_xlfn.TEXTJOIN("/",TRUE,M11,N11,),_xlfn.TEXTJOIN("/",TRUE,O11,P11))</f>
+      <c r="T10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="K11" t="str">
+        <f t="shared" ref="K11:K20" si="1">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,L11,M11),_xlfn.TEXTJOIN("/",TRUE,N11,O11,),_xlfn.TEXTJOIN("/",TRUE,P11,Q11))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="J12" t="str">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="J13" t="str">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="K13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="J14" t="str">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="J15" t="str">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="J16" t="str">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="K16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J17" t="str">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J18" t="str">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J19" t="str">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J20" t="str">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1668,7 +1710,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27473FFE-7586-420B-9881-7CFFCE3CBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D3AE86-00A4-4006-8F5A-CD75AF4D3EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38835" yWindow="3570" windowWidth="21600" windowHeight="11265" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
@@ -962,7 +962,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D3AE86-00A4-4006-8F5A-CD75AF4D3EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F18C884-7664-4C34-8E60-A7A18C46D768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38835" yWindow="3570" windowWidth="21600" windowHeight="11265" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인벤토리에 들어있는 포션을 아이템 파우치에 등록한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상인과 대화를 끝낸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인벤토리에 들어있는 낡은 끌을 장착한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BPK_001</t>
   </si>
   <si>
@@ -298,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구리 10개 채취</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퀘스트 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,10 +329,6 @@
     <t>WPN_001</t>
   </si>
   <si>
-    <t>인벤토리에 들어있는 낡은 곡괭이를 장착한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>smith_002</t>
   </si>
   <si>
@@ -361,10 +345,6 @@
   </si>
   <si>
     <t>priest_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가져와</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -406,21 +386,9 @@
     <t>merchant_003</t>
   </si>
   <si>
-    <t>대장장이 할아범한테 가봐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션 한번 마셔봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>merchant_004</t>
   </si>
   <si>
-    <t>아이템 파우치에 포션을 넣어봐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IVS_005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,6 +438,66 @@
   </si>
   <si>
     <t>priest</t>
+  </si>
+  <si>
+    <t>대장장이에게로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 마셔보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 장착하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인에게 가보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마셔보라며 포션을 하나 받았다. 가방을 열고 포션을 마셔보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 파우치에 포션을 장착할 수 있다. 가방을 열고 포션을 아이템 파우치에 장착해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이 할아버지에게 곡괭이와 망치를 받았다. 가방을 열고 장착해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목사에게 가보자. 목사는 오른쪽 위에 있다고 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이는 입구를 나가서, 왼쪽으로 가면 만날 수 있다고 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탑으로의 첫번째 순례다. 구리를 20개 모아오자. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 순례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션을 아이템 파우치에 등록한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 곡괭이를 장착한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 망치를 장착한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 채취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -961,46 +989,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56558A53-13DE-484A-BD66-55DF2DF5CD5A}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17" customWidth="1"/>
     <col min="8" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.83203125" customWidth="1"/>
+    <col min="11" max="11" width="32.875" customWidth="1"/>
     <col min="12" max="17" width="15.75" customWidth="1"/>
-    <col min="18" max="18" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="54.08203125" customWidth="1"/>
+    <col min="20" max="20" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>35</v>
@@ -1033,7 +1061,7 @@
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
@@ -1042,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1101,14 +1129,14 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>38</v>
@@ -1129,7 +1157,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>8</v>
@@ -1138,9 +1166,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1155,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1171,7 +1199,7 @@
         <v>POT_001/1</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1180,15 +1208,15 @@
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1197,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1206,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1219,7 +1247,7 @@
         <v>POT_001/2</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -1228,15 +1256,15 @@
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1245,16 +1273,16 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1273,33 +1301,33 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="T6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1319,36 +1347,36 @@
         <v>12</v>
       </c>
       <c r="S7" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
         <v>75</v>
-      </c>
-      <c r="T7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1358,13 +1386,13 @@
         <v>WPN_001/1~SWP_001/1</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1373,33 +1401,33 @@
         <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1418,36 +1446,36 @@
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -1457,7 +1485,7 @@
         <v>COIN/1000</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M10">
         <v>1000</v>
@@ -1469,64 +1497,64 @@
         <v>12</v>
       </c>
       <c r="T10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K11" t="str">
         <f t="shared" ref="K11:K20" si="1">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,L11,M11),_xlfn.TEXTJOIN("/",TRUE,N11,O11,),_xlfn.TEXTJOIN("/",TRUE,P11,Q11))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1542,20 +1570,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05750139-F7A3-41CB-8435-A7A5FC2F3E9D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1566,13 +1594,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1587,7 +1615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1596,24 +1624,24 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1630,15 +1658,15 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1649,13 +1677,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1670,7 +1698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1679,21 +1707,21 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1710,19 +1738,19 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1733,13 +1761,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1754,7 +1782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1763,122 +1791,122 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
       <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F18C884-7664-4C34-8E60-A7A18C46D768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDBB7E7-9856-4772-9A1E-2FF389A578D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -199,18 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인벤토리에 들어있는 포션을 마신다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상인과 대화를 끝낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세이브 포인트와 상호작용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조사 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대장장이와 대화한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무기를 들어봐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,10 +317,6 @@
   </si>
   <si>
     <t>목사에게 가봐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목사와 대화한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,19 +464,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포션을 아이템 파우치에 등록한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 곡괭이를 장착한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 망치를 장착한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구리 채취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인과 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션을 아이템 파우치에 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션을 섭취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 곡괭이를 장착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 망치를 장착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목사와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브 포인트와 상호작용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56558A53-13DE-484A-BD66-55DF2DF5CD5A}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -1013,22 +1013,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>35</v>
@@ -1061,7 +1061,7 @@
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
@@ -1129,14 +1129,14 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>38</v>
@@ -1157,7 +1157,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>8</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1183,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1199,7 +1199,7 @@
         <v>POT_001/1</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1208,15 +1208,15 @@
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="T4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1247,7 +1247,7 @@
         <v>POT_001/2</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -1256,15 +1256,15 @@
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="T5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1273,16 +1273,16 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1301,33 +1301,33 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="T6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1347,36 +1347,36 @@
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1386,13 +1386,13 @@
         <v>WPN_001/1~SWP_001/1</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1401,33 +1401,33 @@
         <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1446,36 +1446,36 @@
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -1485,7 +1485,7 @@
         <v>COIN/1000</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M10">
         <v>1000</v>
@@ -1497,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="T10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05750139-F7A3-41CB-8435-A7A5FC2F3E9D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1594,7 +1594,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
@@ -1635,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -1677,7 +1677,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1738,7 +1738,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1761,10 +1761,10 @@
         <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1791,21 +1791,21 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1813,100 +1813,100 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
         <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDBB7E7-9856-4772-9A1E-2FF389A578D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2412661-AD47-4EC5-A81E-B7680D512C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="122">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -497,6 +497,10 @@
   </si>
   <si>
     <t>세이브 포인트와 상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -990,7 +994,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1264,7 +1268,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1309,7 +1313,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2412661-AD47-4EC5-A81E-B7680D512C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845CAF56-9639-41A2-A939-8883AD491F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="125">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,10 +195,6 @@
     <t>con_id3</t>
   </si>
   <si>
-    <t>#퀘스트 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조사 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,6 +497,20 @@
   </si>
   <si>
     <t>merchant_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 목표</t>
+  </si>
+  <si>
+    <t>퀘스트 목표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56558A53-13DE-484A-BD66-55DF2DF5CD5A}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1017,22 +1027,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>35</v>
@@ -1065,7 +1075,7 @@
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
@@ -1133,14 +1143,14 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>38</v>
@@ -1161,7 +1171,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>8</v>
@@ -1172,7 +1182,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1187,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1203,7 +1213,7 @@
         <v>POT_001/1</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1212,15 +1222,15 @@
         <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1229,7 +1239,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1238,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1251,7 +1261,7 @@
         <v>POT_001/2</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -1260,15 +1270,15 @@
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1277,16 +1287,16 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1305,33 +1315,33 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1351,36 +1361,36 @@
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1390,13 +1400,13 @@
         <v>WPN_001/1~SWP_001/1</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1405,33 +1415,33 @@
         <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1450,36 +1460,36 @@
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -1489,7 +1499,7 @@
         <v>COIN/1000</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M10">
         <v>1000</v>
@@ -1501,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="T10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -1574,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05750139-F7A3-41CB-8435-A7A5FC2F3E9D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1595,10 +1605,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
@@ -1611,7 +1621,9 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1626,9 +1638,11 @@
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
@@ -1639,10 +1653,10 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -1659,7 +1673,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1678,10 +1692,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
@@ -1694,7 +1708,9 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1709,9 +1725,11 @@
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
@@ -1719,13 +1737,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1742,7 +1760,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1762,13 +1780,13 @@
         <v>28</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1778,7 +1796,9 @@
       <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1793,23 +1813,25 @@
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="D3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1817,100 +1839,100 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/JJData/Xlsx/Quest_Info.xlsx
+++ b/Assets/JJData/Xlsx/Quest_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845CAF56-9639-41A2-A939-8883AD491F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D117E25-3189-424D-980B-27F07CEED44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
+    <workbookView xWindow="40290" yWindow="1200" windowWidth="21600" windowHeight="11265" activeTab="3" xr2:uid="{C141A90D-A0BA-44F2-BD7E-B8B1EC6AEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="126">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -511,6 +511,10 @@
   </si>
   <si>
     <t>퀘스트 목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,22 +1011,22 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17" customWidth="1"/>
     <col min="8" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.875" customWidth="1"/>
+    <col min="11" max="11" width="32.83203125" customWidth="1"/>
     <col min="12" max="17" width="15.75" customWidth="1"/>
-    <col min="18" max="18" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.58203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="54.125" customWidth="1"/>
+    <col min="20" max="20" width="54.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>64</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>96</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>68</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>72</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>75</v>
       </c>
@@ -1514,61 +1518,61 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="K11" t="str">
         <f t="shared" ref="K11:K20" si="1">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,L11,M11),_xlfn.TEXTJOIN("/",TRUE,N11,O11,),_xlfn.TEXTJOIN("/",TRUE,P11,Q11))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="K13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="K16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1584,20 +1588,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05750139-F7A3-41CB-8435-A7A5FC2F3E9D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1648,7 +1652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -1676,15 +1680,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -1759,20 +1763,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BFFB45-19B7-4C89-BD72-C2F08739F625}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -1873,13 +1877,13 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>58</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>59</v>
       </c>
@@ -1915,13 +1919,13 @@
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>60</v>
       </c>
